--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_20_37.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_20_37.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3495283.433273722</v>
+        <v>3493031.353562513</v>
       </c>
     </row>
     <row r="7">
@@ -656,7 +656,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -665,10 +665,10 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>279.3751023006584</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>103.9069048230606</v>
       </c>
       <c r="G2" t="n">
         <v>410.9217256534534</v>
@@ -710,7 +710,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U2" t="n">
         <v>250.995171958902</v>
@@ -725,7 +725,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -783,7 +783,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S3" t="n">
         <v>128.1435076414547</v>
@@ -814,22 +814,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>79.40252205331829</v>
       </c>
       <c r="D4" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>144.7550149143208</v>
@@ -862,10 +862,10 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T4" t="n">
         <v>219.5489492761692</v>
@@ -874,16 +874,16 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>165.7780485744464</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -893,25 +893,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>127.4503987265494</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>410.9217256534534</v>
+        <v>10.92172565345345</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I5" t="n">
         <v>41.57692977292595</v>
@@ -947,10 +947,10 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U5" t="n">
-        <v>105.0221052551899</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
@@ -993,7 +993,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I6" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247721</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1051,7 +1051,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -1063,10 +1063,10 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -1099,7 +1099,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>70.82764119510665</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S7" t="n">
         <v>189.7690253314419</v>
@@ -1117,10 +1117,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>120.6353666620237</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -1130,7 +1130,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
@@ -1142,13 +1142,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>410.9217256534534</v>
+        <v>10.92172565345345</v>
       </c>
       <c r="H8" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>41.57692977292595</v>
@@ -1181,10 +1181,10 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
-        <v>42.64559995940316</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U8" t="n">
         <v>250.995171958902</v>
@@ -1196,10 +1196,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>55.17585209939403</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1291,19 +1291,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>4.043187116398963</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1336,13 +1336,13 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
         <v>286.2118382056129</v>
@@ -1351,13 +1351,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>15.42290135054921</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -1370,10 +1370,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710085</v>
       </c>
       <c r="D11" t="n">
-        <v>354.683041620682</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
         <v>381.9303700722618</v>
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695531</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
@@ -1464,7 +1464,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H12" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -1525,7 +1525,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>141.6930519056953</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
@@ -1534,13 +1534,13 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>140.2947128462239</v>
@@ -1573,10 +1573,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.3752467101217</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S13" t="n">
-        <v>123.7971820797026</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
         <v>217.4054503272883</v>
@@ -1619,7 +1619,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>409.8033385187866</v>
+        <v>409.803338518787</v>
       </c>
       <c r="H14" t="n">
         <v>283.1540821444137</v>
@@ -1655,10 +1655,10 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T14" t="n">
-        <v>199.0222304576155</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U14" t="n">
         <v>250.9057009881286</v>
@@ -1765,16 +1765,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>110.0177171766861</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>165.5241382922688</v>
@@ -1783,7 +1783,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,16 +1810,16 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
-        <v>172.0260335000785</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
@@ -1853,10 +1853,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
-        <v>406.8760457417109</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H17" t="n">
         <v>283.1540821444137</v>
@@ -1892,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -2005,22 +2005,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>18.7084378797731</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>83.06560892428168</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,7 +2047,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
@@ -2093,10 +2093,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H20" t="n">
-        <v>283.1540821444141</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2129,7 +2129,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2242,7 +2242,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
@@ -2251,10 +2251,10 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>83.06560892428212</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2284,7 +2284,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
@@ -2305,7 +2305,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>178.2642147042091</v>
       </c>
     </row>
     <row r="23">
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2482,16 +2482,16 @@
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>108.2950343703266</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>83.06560892428212</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2521,7 +2521,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
@@ -2555,7 +2555,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
-        <v>365.2728917710057</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
         <v>354.683041620683</v>
@@ -2567,7 +2567,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187868</v>
       </c>
       <c r="H26" t="n">
         <v>283.1540821444137</v>
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.70251495695531</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
@@ -2649,7 +2649,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H27" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I27" t="n">
         <v>0</v>
@@ -2710,25 +2710,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>117.4765410832877</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>110.0177171766856</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2758,7 +2758,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.3752467101217</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
@@ -2804,7 +2804,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187868</v>
       </c>
       <c r="H29" t="n">
         <v>283.1540821444137</v>
@@ -2843,7 +2843,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T29" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U29" t="n">
         <v>250.9057009881286</v>
@@ -2950,22 +2950,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>60.78102717027877</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>83.06560892428168</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -3013,7 +3013,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
         <v>218.5846533520948</v>
@@ -3187,22 +3187,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>110.0177171766856</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3247,7 +3247,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>240.06330988836</v>
       </c>
       <c r="X34" t="n">
         <v>225.7096553890372</v>
@@ -3278,10 +3278,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187863</v>
       </c>
       <c r="H35" t="n">
-        <v>283.1540821444132</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3424,7 +3424,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
@@ -3433,13 +3433,13 @@
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5241382922688</v>
+        <v>130.1208074460232</v>
       </c>
       <c r="H37" t="n">
-        <v>83.06560892428168</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3518,7 +3518,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H38" t="n">
-        <v>283.1540821444132</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3661,19 +3661,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>126.926382450742</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>108.2950343703266</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
         <v>140.2947128462239</v>
@@ -3904,19 +3904,19 @@
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>108.2950343703266</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3955,7 +3955,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V43" t="n">
-        <v>252.137643323828</v>
+        <v>127.6065435523126</v>
       </c>
       <c r="W43" t="n">
         <v>286.522998336591</v>
@@ -4132,25 +4132,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>134.3852063573442</v>
       </c>
       <c r="C46" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>83.06560892428168</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4304,16 +4304,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1514.348043559527</v>
+        <v>1311.909787855438</v>
       </c>
       <c r="C2" t="n">
-        <v>1514.348043559527</v>
+        <v>1311.909787855438</v>
       </c>
       <c r="D2" t="n">
-        <v>1514.348043559527</v>
+        <v>1311.909787855438</v>
       </c>
       <c r="E2" t="n">
-        <v>1232.150970528558</v>
+        <v>926.121535257194</v>
       </c>
       <c r="F2" t="n">
         <v>821.1650657389509</v>
@@ -4328,19 +4328,19 @@
         <v>66.51211643218343</v>
       </c>
       <c r="J2" t="n">
-        <v>255.3912473912092</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K2" t="n">
-        <v>589.2106210810559</v>
+        <v>589.2106210810554</v>
       </c>
       <c r="L2" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M2" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N2" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O2" t="n">
         <v>2623.528026939508</v>
@@ -4352,28 +4352,28 @@
         <v>3266.588755052369</v>
       </c>
       <c r="R2" t="n">
-        <v>3325.605821609172</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S2" t="n">
-        <v>3215.315153136267</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T2" t="n">
-        <v>3215.315153136267</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="U2" t="n">
-        <v>2961.784676410103</v>
+        <v>2755.806928794325</v>
       </c>
       <c r="V2" t="n">
-        <v>2630.721789066532</v>
+        <v>2424.744041450754</v>
       </c>
       <c r="W2" t="n">
-        <v>2277.953133796418</v>
+        <v>2071.97538618064</v>
       </c>
       <c r="X2" t="n">
-        <v>1904.487375535338</v>
+        <v>1698.50962791956</v>
       </c>
       <c r="Y2" t="n">
-        <v>1514.348043559527</v>
+        <v>1698.50962791956</v>
       </c>
     </row>
     <row r="3">
@@ -4383,37 +4383,37 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C3" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D3" t="n">
-        <v>618.1564155387305</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E3" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F3" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G3" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927781</v>
       </c>
       <c r="H3" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064576</v>
       </c>
       <c r="I3" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J3" t="n">
-        <v>160.1893859228008</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K3" t="n">
         <v>398.4535849031479</v>
       </c>
       <c r="L3" t="n">
-        <v>765.1517452158132</v>
+        <v>765.1517452158131</v>
       </c>
       <c r="M3" t="n">
         <v>1212.428070438129</v>
@@ -4440,7 +4440,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U3" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V3" t="n">
         <v>1779.608347199865</v>
@@ -4449,10 +4449,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X3" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y3" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="4">
@@ -4462,19 +4462,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>994.2880032601528</v>
+        <v>443.0505103572859</v>
       </c>
       <c r="C4" t="n">
-        <v>825.3518203322459</v>
+        <v>362.8459426266614</v>
       </c>
       <c r="D4" t="n">
-        <v>675.2351809199101</v>
+        <v>212.7293032143257</v>
       </c>
       <c r="E4" t="n">
-        <v>527.322087337517</v>
+        <v>212.7293032143257</v>
       </c>
       <c r="F4" t="n">
-        <v>380.4321398396067</v>
+        <v>212.7293032143257</v>
       </c>
       <c r="G4" t="n">
         <v>212.7293032143257</v>
@@ -4510,28 +4510,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R4" t="n">
-        <v>1927.294548088493</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="S4" t="n">
-        <v>1927.294548088493</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="T4" t="n">
-        <v>1705.527932658019</v>
+        <v>1424.011591242373</v>
       </c>
       <c r="U4" t="n">
-        <v>1416.425065783662</v>
+        <v>1134.908724368016</v>
       </c>
       <c r="V4" t="n">
-        <v>1161.740577577775</v>
+        <v>1134.908724368016</v>
       </c>
       <c r="W4" t="n">
-        <v>994.2880032601528</v>
+        <v>845.4915543310558</v>
       </c>
       <c r="X4" t="n">
-        <v>994.2880032601528</v>
+        <v>845.4915543310558</v>
       </c>
       <c r="Y4" t="n">
-        <v>994.2880032601528</v>
+        <v>624.6989751875257</v>
       </c>
     </row>
     <row r="5">
@@ -4541,34 +4541,34 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1661.795585684488</v>
+        <v>921.7704558796261</v>
       </c>
       <c r="C5" t="n">
-        <v>1292.833068744076</v>
+        <v>552.8079389392144</v>
       </c>
       <c r="D5" t="n">
-        <v>934.5673701373257</v>
+        <v>552.8079389392144</v>
       </c>
       <c r="E5" t="n">
-        <v>934.5673701373257</v>
+        <v>424.0701624477504</v>
       </c>
       <c r="F5" t="n">
-        <v>523.5814653477182</v>
+        <v>417.1246616985469</v>
       </c>
       <c r="G5" t="n">
-        <v>108.5090151927147</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H5" t="n">
         <v>108.5090151927147</v>
       </c>
       <c r="I5" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912092</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K5" t="n">
-        <v>589.2106210810557</v>
+        <v>589.2106210810562</v>
       </c>
       <c r="L5" t="n">
         <v>1040.244834329465</v>
@@ -4577,16 +4577,16 @@
         <v>1573.776739001389</v>
       </c>
       <c r="N5" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O5" t="n">
         <v>2623.528026939508</v>
       </c>
       <c r="P5" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q5" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R5" t="n">
         <v>3325.605821609171</v>
@@ -4595,22 +4595,22 @@
         <v>3215.315153136266</v>
       </c>
       <c r="T5" t="n">
-        <v>3215.315153136266</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="U5" t="n">
-        <v>3109.232218535064</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="V5" t="n">
-        <v>2778.169331191494</v>
+        <v>2424.744041450754</v>
       </c>
       <c r="W5" t="n">
-        <v>2425.400675921379</v>
+        <v>2071.975386180639</v>
       </c>
       <c r="X5" t="n">
-        <v>2051.9349176603</v>
+        <v>1698.50962791956</v>
       </c>
       <c r="Y5" t="n">
-        <v>1661.795585684488</v>
+        <v>1308.370295943748</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4620,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>941.5438544811091</v>
+        <v>941.5438544811084</v>
       </c>
       <c r="C6" t="n">
-        <v>767.0908251999821</v>
+        <v>767.0908251999814</v>
       </c>
       <c r="D6" t="n">
-        <v>618.1564155387309</v>
+        <v>618.1564155387301</v>
       </c>
       <c r="E6" t="n">
-        <v>458.9189605332754</v>
+        <v>458.9189605332746</v>
       </c>
       <c r="F6" t="n">
-        <v>312.3844025601604</v>
+        <v>312.3844025601596</v>
       </c>
       <c r="G6" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927777</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064547</v>
+        <v>85.51940803064525</v>
       </c>
       <c r="I6" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J6" t="n">
-        <v>160.189385922801</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K6" t="n">
-        <v>398.4535849031481</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L6" t="n">
-        <v>765.1517452158134</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M6" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N6" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O6" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P6" t="n">
-        <v>2407.411984886742</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q6" t="n">
-        <v>2565.053542533342</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R6" t="n">
-        <v>2564.909189125857</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S6" t="n">
-        <v>2435.471302619337</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T6" t="n">
-        <v>2242.828302297193</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U6" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V6" t="n">
-        <v>1779.608347199866</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W6" t="n">
-        <v>1525.370990471664</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X6" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y6" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="7">
@@ -4699,28 +4699,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>381.1049005553748</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="C7" t="n">
-        <v>381.1049005553748</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="D7" t="n">
-        <v>381.1049005553748</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="E7" t="n">
-        <v>381.1049005553748</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="F7" t="n">
-        <v>234.2149530574645</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="G7" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H7" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I7" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J7" t="n">
         <v>111.634748879119</v>
@@ -4747,28 +4747,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R7" t="n">
-        <v>1855.751476174244</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="S7" t="n">
-        <v>1664.06559200107</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="T7" t="n">
-        <v>1442.298976570596</v>
+        <v>1424.011591242373</v>
       </c>
       <c r="U7" t="n">
-        <v>1153.19610969624</v>
+        <v>1134.908724368016</v>
       </c>
       <c r="V7" t="n">
-        <v>898.5116214903528</v>
+        <v>880.2242361621296</v>
       </c>
       <c r="W7" t="n">
-        <v>609.0944514533921</v>
+        <v>590.8070661251691</v>
       </c>
       <c r="X7" t="n">
-        <v>381.1049005553748</v>
+        <v>468.9531604059532</v>
       </c>
       <c r="Y7" t="n">
-        <v>381.1049005553748</v>
+        <v>248.1605812624231</v>
       </c>
     </row>
     <row r="8">
@@ -4778,22 +4778,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2345.167438673965</v>
+        <v>1239.503030201924</v>
       </c>
       <c r="C8" t="n">
-        <v>1976.204921733553</v>
+        <v>870.5405132615124</v>
       </c>
       <c r="D8" t="n">
-        <v>1617.939223126803</v>
+        <v>512.2748146547618</v>
       </c>
       <c r="E8" t="n">
-        <v>1232.150970528558</v>
+        <v>126.4865620565176</v>
       </c>
       <c r="F8" t="n">
-        <v>821.1650657389509</v>
+        <v>119.5410613073141</v>
       </c>
       <c r="G8" t="n">
-        <v>406.0926155839475</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H8" t="n">
         <v>108.5090151927147</v>
@@ -4805,13 +4805,13 @@
         <v>255.3912473912089</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810554</v>
+        <v>589.2106210810555</v>
       </c>
       <c r="L8" t="n">
         <v>1040.244834329464</v>
       </c>
       <c r="M8" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N8" t="n">
         <v>2120.555556060171</v>
@@ -4829,25 +4829,25 @@
         <v>3325.605821609171</v>
       </c>
       <c r="S8" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T8" t="n">
-        <v>3282.529458013814</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="U8" t="n">
-        <v>3028.99898128765</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="V8" t="n">
-        <v>2697.936093944079</v>
+        <v>2424.744041450754</v>
       </c>
       <c r="W8" t="n">
-        <v>2345.167438673965</v>
+        <v>2071.975386180639</v>
       </c>
       <c r="X8" t="n">
-        <v>2345.167438673965</v>
+        <v>2016.242202241858</v>
       </c>
       <c r="Y8" t="n">
-        <v>2345.167438673965</v>
+        <v>1626.102870266046</v>
       </c>
     </row>
     <row r="9">
@@ -4878,7 +4878,7 @@
         <v>85.51940803064537</v>
       </c>
       <c r="I9" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J9" t="n">
         <v>160.189385922801</v>
@@ -4936,19 +4936,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>684.4520072430315</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="C10" t="n">
-        <v>515.5158243151246</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="D10" t="n">
-        <v>365.3991849027889</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="E10" t="n">
-        <v>217.4860913203958</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="F10" t="n">
-        <v>70.5961438224854</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="G10" t="n">
         <v>66.51211643218342</v>
@@ -4984,28 +4984,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R10" t="n">
-        <v>1927.294548088493</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="S10" t="n">
-        <v>1927.294548088493</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="T10" t="n">
-        <v>1927.294548088493</v>
+        <v>1424.011591242373</v>
       </c>
       <c r="U10" t="n">
-        <v>1638.191681214136</v>
+        <v>1134.908724368016</v>
       </c>
       <c r="V10" t="n">
-        <v>1383.507193008249</v>
+        <v>880.2242361621296</v>
       </c>
       <c r="W10" t="n">
-        <v>1094.090022971289</v>
+        <v>864.6455479292516</v>
       </c>
       <c r="X10" t="n">
-        <v>866.1004720732712</v>
+        <v>636.6559970312343</v>
       </c>
       <c r="Y10" t="n">
-        <v>866.1004720732712</v>
+        <v>415.8634178877041</v>
       </c>
     </row>
     <row r="11">
@@ -5015,10 +5015,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D11" t="n">
         <v>1590.547811004713</v>
@@ -5033,16 +5033,16 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192605</v>
       </c>
       <c r="J11" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075816</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L11" t="n">
         <v>1478.611553332388</v>
@@ -5054,37 +5054,37 @@
         <v>2950.898526355938</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y11" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="12">
@@ -5103,7 +5103,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E12" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F12" t="n">
         <v>314.2396613568978</v>
@@ -5112,34 +5112,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J12" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="K12" t="n">
-        <v>280.8495004245714</v>
+        <v>429.5088224239597</v>
       </c>
       <c r="L12" t="n">
-        <v>776.17510664033</v>
+        <v>924.8344286397185</v>
       </c>
       <c r="M12" t="n">
-        <v>1373.553594266882</v>
+        <v>1522.21291626627</v>
       </c>
       <c r="N12" t="n">
-        <v>2001.151557821488</v>
+        <v>1522.21291626627</v>
       </c>
       <c r="O12" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P12" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q12" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R12" t="n">
         <v>2553.061288060775</v>
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>571.6607764188008</v>
+        <v>552.3777707160738</v>
       </c>
       <c r="C13" t="n">
-        <v>402.7245934908938</v>
+        <v>383.4415877881669</v>
       </c>
       <c r="D13" t="n">
-        <v>402.7245934908938</v>
+        <v>383.4415877881669</v>
       </c>
       <c r="E13" t="n">
-        <v>402.7245934908938</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="F13" t="n">
-        <v>402.7245934908938</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G13" t="n">
         <v>235.5284942057738</v>
       </c>
       <c r="H13" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797744</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M13" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P13" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R13" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T13" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U13" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V13" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W13" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X13" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y13" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="14">
@@ -5255,7 +5255,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D14" t="n">
         <v>1590.547811004713</v>
@@ -5264,19 +5264,19 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168616</v>
       </c>
       <c r="G14" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K14" t="n">
         <v>852.8523611075809</v>
@@ -5288,28 +5288,28 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O14" t="n">
         <v>3640.42229106801</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V14" t="n">
         <v>3820.749612123003</v>
@@ -5340,7 +5340,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E15" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F15" t="n">
         <v>314.2396613568978</v>
@@ -5349,34 +5349,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I15" t="n">
-        <v>95.58405025273902</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J15" t="n">
-        <v>245.2306927803937</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="K15" t="n">
-        <v>579.1554649516142</v>
+        <v>214.9229991561132</v>
       </c>
       <c r="L15" t="n">
-        <v>1074.481071167373</v>
+        <v>710.248605371872</v>
       </c>
       <c r="M15" t="n">
-        <v>1671.859558793925</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="N15" t="n">
-        <v>2299.457522348532</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O15" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P15" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q15" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5410,76 +5410,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1098.667160263526</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C16" t="n">
-        <v>929.7309773356194</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="D16" t="n">
-        <v>779.6143379232836</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="E16" t="n">
-        <v>631.7012443408905</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F16" t="n">
-        <v>484.8112968429802</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G16" t="n">
-        <v>317.6151975578601</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P16" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R16" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T16" t="n">
-        <v>2446.96308358026</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U16" t="n">
-        <v>2273.199413378161</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V16" t="n">
-        <v>2018.514925172274</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W16" t="n">
-        <v>1729.097755135313</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X16" t="n">
-        <v>1501.108204237296</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y16" t="n">
-        <v>1280.315625093766</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="17">
@@ -5501,7 +5501,7 @@
         <v>1204.759558406468</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G17" t="n">
         <v>379.8308874362686</v>
@@ -5510,22 +5510,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O17" t="n">
         <v>3640.42229106801</v>
@@ -5589,31 +5589,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J18" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="K18" t="n">
-        <v>93.81666304797187</v>
+        <v>429.5088224239596</v>
       </c>
       <c r="L18" t="n">
-        <v>119.290296770379</v>
+        <v>924.8344286397185</v>
       </c>
       <c r="M18" t="n">
-        <v>716.6687843969308</v>
+        <v>1103.652278938886</v>
       </c>
       <c r="N18" t="n">
-        <v>1344.266747951538</v>
+        <v>1731.250242493492</v>
       </c>
       <c r="O18" t="n">
-        <v>1896.176478190825</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P18" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q18" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5647,76 +5647,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>513.8536007400712</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C19" t="n">
-        <v>344.9174178121643</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D19" t="n">
-        <v>344.9174178121643</v>
+        <v>194.8007783998291</v>
       </c>
       <c r="E19" t="n">
-        <v>344.9174178121643</v>
+        <v>194.8007783998291</v>
       </c>
       <c r="F19" t="n">
-        <v>344.9174178121643</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="G19" t="n">
-        <v>177.7213185270443</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="H19" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I19" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P19" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R19" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T19" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U19" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V19" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W19" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X19" t="n">
-        <v>916.2946447138411</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y19" t="n">
-        <v>695.5020655703109</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="20">
@@ -5729,70 +5729,70 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C20" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168616</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G20" t="n">
-        <v>379.830887436269</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J20" t="n">
         <v>378.1925803111712</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R20" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5814,7 +5814,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E21" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F21" t="n">
         <v>314.2396613568978</v>
@@ -5823,34 +5823,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J21" t="n">
-        <v>93.81666304797189</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K21" t="n">
-        <v>93.81666304797189</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L21" t="n">
-        <v>93.81666304797189</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M21" t="n">
-        <v>691.1951506745238</v>
+        <v>1103.652278938886</v>
       </c>
       <c r="N21" t="n">
-        <v>1318.793114229131</v>
+        <v>1731.250242493492</v>
       </c>
       <c r="O21" t="n">
-        <v>1870.702844468418</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P21" t="n">
-        <v>2294.325993963486</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q21" t="n">
-        <v>2527.587654338369</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5884,76 +5884,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>513.8536007400717</v>
+        <v>554.5813165460164</v>
       </c>
       <c r="C22" t="n">
-        <v>344.9174178121648</v>
+        <v>385.6451336181095</v>
       </c>
       <c r="D22" t="n">
-        <v>344.9174178121648</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="E22" t="n">
-        <v>344.9174178121648</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="F22" t="n">
-        <v>344.9174178121648</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G22" t="n">
-        <v>177.7213185270447</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H22" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M22" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P22" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T22" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U22" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V22" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W22" t="n">
-        <v>1144.284195611859</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X22" t="n">
-        <v>916.2946447138415</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y22" t="n">
-        <v>695.5020655703114</v>
+        <v>736.2297813762561</v>
       </c>
     </row>
     <row r="23">
@@ -5966,31 +5966,31 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C23" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004714</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.75955840647</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168611</v>
+        <v>793.773653616862</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362693</v>
       </c>
       <c r="H23" t="n">
-        <v>93.8166630479719</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332387</v>
@@ -5999,37 +5999,37 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P23" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R23" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S23" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T23" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y23" t="n">
         <v>2704.375866615997</v>
@@ -6051,7 +6051,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E24" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F24" t="n">
         <v>314.2396613568978</v>
@@ -6060,34 +6060,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J24" t="n">
-        <v>93.81666304797189</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K24" t="n">
-        <v>93.81666304797189</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L24" t="n">
-        <v>93.81666304797189</v>
+        <v>738.7889117913853</v>
       </c>
       <c r="M24" t="n">
-        <v>691.1951506745238</v>
+        <v>1336.167399417937</v>
       </c>
       <c r="N24" t="n">
-        <v>1318.793114229131</v>
+        <v>1963.765362972544</v>
       </c>
       <c r="O24" t="n">
-        <v>1870.702844468418</v>
+        <v>1963.765362972544</v>
       </c>
       <c r="P24" t="n">
-        <v>2294.325993963486</v>
+        <v>2387.388512467612</v>
       </c>
       <c r="Q24" t="n">
-        <v>2527.587654338369</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6121,76 +6121,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>513.8536007400717</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C25" t="n">
-        <v>344.9174178121648</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D25" t="n">
-        <v>344.9174178121648</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E25" t="n">
-        <v>344.9174178121648</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="F25" t="n">
-        <v>344.9174178121648</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G25" t="n">
-        <v>177.7213185270447</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H25" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P25" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T25" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U25" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V25" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W25" t="n">
-        <v>1144.284195611859</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X25" t="n">
-        <v>916.2946447138415</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y25" t="n">
-        <v>695.5020655703114</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="26">
@@ -6200,7 +6200,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2317.776026551873</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C26" t="n">
         <v>1948.813509611463</v>
@@ -6215,61 +6215,61 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362685</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111714</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075798</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014777</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355935</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.422291068008</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694705</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852253</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R26" t="n">
-        <v>4690.833152398592</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492576</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474782</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466571</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852886</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591806</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y26" t="n">
-        <v>2704.375866615995</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="27">
@@ -6297,25 +6297,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797183</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J27" t="n">
-        <v>93.81666304797183</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K27" t="n">
-        <v>93.81666304797183</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L27" t="n">
-        <v>93.81666304797183</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M27" t="n">
-        <v>680.0291294438179</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N27" t="n">
-        <v>1307.627092998424</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="O27" t="n">
         <v>1859.536823237711</v>
@@ -6358,37 +6358,37 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>513.8536007400712</v>
+        <v>695.5020655703109</v>
       </c>
       <c r="C28" t="n">
-        <v>513.8536007400712</v>
+        <v>526.5658826424041</v>
       </c>
       <c r="D28" t="n">
-        <v>513.8536007400712</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="E28" t="n">
-        <v>513.8536007400712</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F28" t="n">
-        <v>402.7245934908938</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G28" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H28" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J28" t="n">
-        <v>174.0526814782956</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797742</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M28" t="n">
         <v>1248.150240910809</v>
@@ -6458,13 +6458,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332387</v>
@@ -6497,13 +6497,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y29" t="n">
         <v>2704.375866615997</v>
@@ -6540,28 +6540,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J30" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K30" t="n">
-        <v>427.7414352191925</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L30" t="n">
-        <v>923.0670414349511</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M30" t="n">
-        <v>1373.553594266881</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N30" t="n">
-        <v>2001.151557821488</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O30" t="n">
-        <v>2553.061288060775</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="P30" t="n">
-        <v>2553.061288060775</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="Q30" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6595,22 +6595,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>513.8536007400712</v>
+        <v>741.8431516380886</v>
       </c>
       <c r="C31" t="n">
-        <v>344.9174178121643</v>
+        <v>680.448174698413</v>
       </c>
       <c r="D31" t="n">
-        <v>344.9174178121643</v>
+        <v>530.3315352860773</v>
       </c>
       <c r="E31" t="n">
-        <v>344.9174178121643</v>
+        <v>382.4184417036842</v>
       </c>
       <c r="F31" t="n">
-        <v>344.9174178121643</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G31" t="n">
-        <v>177.7213185270443</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H31" t="n">
         <v>93.81666304797187</v>
@@ -6661,10 +6661,10 @@
         <v>1144.284195611858</v>
       </c>
       <c r="X31" t="n">
-        <v>916.2946447138411</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="Y31" t="n">
-        <v>695.5020655703109</v>
+        <v>923.4916164683283</v>
       </c>
     </row>
     <row r="32">
@@ -6674,46 +6674,46 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C32" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E32" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G32" t="n">
         <v>379.8308874362683</v>
       </c>
       <c r="H32" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192593</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111717</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P32" t="n">
         <v>4194.413870694707</v>
@@ -6731,19 +6731,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y32" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="33">
@@ -6774,31 +6774,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J33" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K33" t="n">
-        <v>427.7414352191925</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L33" t="n">
-        <v>923.0670414349511</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="M33" t="n">
-        <v>1520.445529061503</v>
+        <v>1176.533952578166</v>
       </c>
       <c r="N33" t="n">
-        <v>2148.04349261611</v>
+        <v>1731.250242493492</v>
       </c>
       <c r="O33" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P33" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q33" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6832,22 +6832,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>513.8536007400712</v>
+        <v>560.7825789706076</v>
       </c>
       <c r="C34" t="n">
-        <v>402.7245934908939</v>
+        <v>391.8463960427007</v>
       </c>
       <c r="D34" t="n">
-        <v>402.7245934908939</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E34" t="n">
-        <v>402.7245934908939</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F34" t="n">
-        <v>402.7245934908939</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G34" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H34" t="n">
         <v>93.81666304797187</v>
@@ -6895,13 +6895,13 @@
         <v>1433.701365648819</v>
       </c>
       <c r="W34" t="n">
-        <v>1144.284195611858</v>
+        <v>1191.213173842395</v>
       </c>
       <c r="X34" t="n">
-        <v>916.2946447138411</v>
+        <v>963.2236229443774</v>
       </c>
       <c r="Y34" t="n">
-        <v>695.5020655703109</v>
+        <v>742.4310438008473</v>
       </c>
     </row>
     <row r="35">
@@ -6911,10 +6911,10 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C35" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D35" t="n">
         <v>1590.547811004712</v>
@@ -6923,22 +6923,22 @@
         <v>1204.759558406468</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362681</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J35" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332387</v>
@@ -6968,19 +6968,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y35" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="36">
@@ -7011,28 +7011,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J36" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K36" t="n">
-        <v>427.7414352191925</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="L36" t="n">
-        <v>923.0670414349511</v>
+        <v>590.9096564684977</v>
       </c>
       <c r="M36" t="n">
-        <v>1520.445529061503</v>
+        <v>716.6687843969308</v>
       </c>
       <c r="N36" t="n">
-        <v>2148.04349261611</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="O36" t="n">
-        <v>2553.061288060775</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P36" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q36" t="n">
         <v>2553.061288060775</v>
@@ -7072,19 +7072,19 @@
         <v>513.8536007400712</v>
       </c>
       <c r="C37" t="n">
-        <v>344.9174178121643</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="D37" t="n">
-        <v>344.9174178121643</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="E37" t="n">
-        <v>344.9174178121643</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="F37" t="n">
-        <v>344.9174178121643</v>
+        <v>366.9636532421608</v>
       </c>
       <c r="G37" t="n">
-        <v>177.7213185270443</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H37" t="n">
         <v>93.81666304797187</v>
@@ -7154,37 +7154,37 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362681</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192596</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111715</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
         <v>3640.42229106801</v>
@@ -7251,16 +7251,16 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J39" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K39" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L39" t="n">
-        <v>93.81666304797187</v>
+        <v>738.7889117913853</v>
       </c>
       <c r="M39" t="n">
-        <v>680.0291294438176</v>
+        <v>738.7889117913853</v>
       </c>
       <c r="N39" t="n">
         <v>1307.627092998424</v>
@@ -7309,16 +7309,16 @@
         <v>513.8536007400712</v>
       </c>
       <c r="C40" t="n">
-        <v>344.9174178121643</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="D40" t="n">
-        <v>344.9174178121643</v>
+        <v>363.7369613277355</v>
       </c>
       <c r="E40" t="n">
-        <v>344.9174178121643</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="F40" t="n">
-        <v>344.9174178121643</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G40" t="n">
         <v>235.5284942057738</v>
@@ -7397,22 +7397,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H41" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J41" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
@@ -7488,22 +7488,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J42" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K42" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L42" t="n">
-        <v>93.81666304797187</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M42" t="n">
-        <v>680.0291294438176</v>
+        <v>1103.652278938886</v>
       </c>
       <c r="N42" t="n">
-        <v>1307.627092998424</v>
+        <v>1731.250242493492</v>
       </c>
       <c r="O42" t="n">
-        <v>1859.536823237711</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P42" t="n">
         <v>2283.159972732779</v>
@@ -7543,25 +7543,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>513.8536007400712</v>
+        <v>639.6425904082687</v>
       </c>
       <c r="C43" t="n">
-        <v>344.9174178121643</v>
+        <v>470.7064074803617</v>
       </c>
       <c r="D43" t="n">
-        <v>344.9174178121643</v>
+        <v>470.7064074803617</v>
       </c>
       <c r="E43" t="n">
-        <v>344.9174178121643</v>
+        <v>322.7933138979686</v>
       </c>
       <c r="F43" t="n">
-        <v>344.9174178121643</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="G43" t="n">
-        <v>235.5284942057738</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H43" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I43" t="n">
         <v>93.81666304797187</v>
@@ -7603,16 +7603,16 @@
         <v>1688.385853854706</v>
       </c>
       <c r="V43" t="n">
-        <v>1433.701365648819</v>
+        <v>1559.490355317017</v>
       </c>
       <c r="W43" t="n">
-        <v>1144.284195611858</v>
+        <v>1270.073185280056</v>
       </c>
       <c r="X43" t="n">
-        <v>916.2946447138411</v>
+        <v>1042.083634382039</v>
       </c>
       <c r="Y43" t="n">
-        <v>695.5020655703109</v>
+        <v>821.2910552385084</v>
       </c>
     </row>
     <row r="44">
@@ -7622,46 +7622,46 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C44" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D44" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E44" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G44" t="n">
         <v>379.8308874362683</v>
       </c>
       <c r="H44" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192593</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111717</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L44" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P44" t="n">
         <v>4194.413870694707</v>
@@ -7679,19 +7679,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U44" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y44" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="45">
@@ -7722,31 +7722,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J45" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K45" t="n">
-        <v>93.81666304797187</v>
+        <v>184.7035232280589</v>
       </c>
       <c r="L45" t="n">
-        <v>93.81666304797187</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="M45" t="n">
-        <v>691.1951506745238</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="N45" t="n">
-        <v>1318.79311422913</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O45" t="n">
-        <v>1870.702844468417</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P45" t="n">
-        <v>2294.325993963485</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q45" t="n">
-        <v>2527.587654338368</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7780,22 +7780,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>513.8536007400712</v>
+        <v>559.7594328861248</v>
       </c>
       <c r="C46" t="n">
-        <v>344.9174178121643</v>
+        <v>390.823249958218</v>
       </c>
       <c r="D46" t="n">
-        <v>344.9174178121643</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="E46" t="n">
-        <v>344.9174178121643</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F46" t="n">
-        <v>344.9174178121643</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G46" t="n">
-        <v>177.7213185270443</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H46" t="n">
         <v>93.81666304797187</v>
@@ -8289,7 +8289,7 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>2.025046796916286e-13</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -23413,7 +23413,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>38.13892827624204</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
@@ -23422,19 +23422,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856555</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23464,7 +23464,7 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>57.229103921942</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23653,16 +23653,16 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>36.41624546988311</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -23671,7 +23671,7 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,16 +23698,16 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>114.1584408891656</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -23893,22 +23893,22 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>126.7126101431581</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>57.22910392194221</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -24130,7 +24130,7 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
@@ -24139,13 +24139,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>57.22910392194174</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24193,7 +24193,7 @@
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>40.32043864788571</v>
       </c>
     </row>
     <row r="23">
@@ -24370,19 +24370,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>38.13892827624255</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>57.22910392194174</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24598,28 +24598,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>31.13893193492463</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>35.40333084624564</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856555</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24838,22 +24838,22 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>106.4657939283491</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>57.22910392194221</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>81.26583631856553</v>
@@ -24901,7 +24901,7 @@
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -25075,22 +25075,22 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>57.22910392194228</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
         <v>81.26583631856553</v>
@@ -25135,7 +25135,7 @@
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>46.45968844823096</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
@@ -25312,7 +25312,7 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
         <v>148.6154730182124</v>
@@ -25321,13 +25321,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>35.40333084624569</v>
       </c>
       <c r="H37" t="n">
-        <v>57.22910392194221</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>81.26583631856553</v>
@@ -25549,19 +25549,19 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>19.50758019582713</v>
       </c>
       <c r="F40" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>57.22910392194223</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -25792,19 +25792,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>57.22910392194223</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25843,7 +25843,7 @@
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>124.5310997715154</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
@@ -26020,25 +26020,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>45.44677382459307</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>57.22910392194221</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
         <v>81.26583631856553</v>
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>678094.8240445015</v>
+        <v>678094.8240445014</v>
       </c>
     </row>
     <row r="7">
@@ -26187,7 +26187,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>678094.8240445013</v>
+        <v>678094.8240445014</v>
       </c>
     </row>
     <row r="11">
@@ -26219,7 +26219,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>678094.8240445013</v>
+        <v>678094.8240445014</v>
       </c>
     </row>
     <row r="15">
@@ -26311,49 +26311,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>759463.6371244623</v>
+        <v>759463.6371244622</v>
       </c>
       <c r="C2" t="n">
-        <v>759463.6371244626</v>
+        <v>759463.6371244625</v>
       </c>
       <c r="D2" t="n">
-        <v>759463.6371244625</v>
+        <v>759463.6371244624</v>
       </c>
       <c r="E2" t="n">
+        <v>746610.6047132551</v>
+      </c>
+      <c r="F2" t="n">
         <v>746610.6047132554</v>
-      </c>
-      <c r="F2" t="n">
-        <v>746610.6047132553</v>
       </c>
       <c r="G2" t="n">
         <v>746610.6047132553</v>
       </c>
       <c r="H2" t="n">
-        <v>746610.6047132555</v>
+        <v>746610.6047132551</v>
       </c>
       <c r="I2" t="n">
-        <v>746610.6047132555</v>
+        <v>746610.6047132554</v>
       </c>
       <c r="J2" t="n">
         <v>746610.6047132553</v>
       </c>
       <c r="K2" t="n">
+        <v>746610.6047132555</v>
+      </c>
+      <c r="L2" t="n">
+        <v>746610.6047132554</v>
+      </c>
+      <c r="M2" t="n">
         <v>746610.6047132551</v>
       </c>
-      <c r="L2" t="n">
+      <c r="N2" t="n">
         <v>746610.6047132553</v>
       </c>
-      <c r="M2" t="n">
-        <v>746610.6047132552</v>
-      </c>
-      <c r="N2" t="n">
-        <v>746610.6047132555</v>
-      </c>
       <c r="O2" t="n">
-        <v>746610.6047132554</v>
+        <v>746610.6047132553</v>
       </c>
       <c r="P2" t="n">
-        <v>746610.6047132555</v>
+        <v>746610.6047132553</v>
       </c>
     </row>
     <row r="3">
@@ -26372,22 +26372,22 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073549</v>
+        <v>325412.4618073554</v>
       </c>
       <c r="F3" t="n">
-        <v>1.797263848857256e-10</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>1.741016149026109e-10</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>217531.2023972771</v>
+        <v>217531.2023972775</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26396,7 +26396,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551178</v>
+        <v>85055.02793551187</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26415,43 +26415,43 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>92183.89891818169</v>
+        <v>92183.8989181817</v>
       </c>
       <c r="C4" t="n">
-        <v>92183.8989181817</v>
+        <v>92183.89891818172</v>
       </c>
       <c r="D4" t="n">
-        <v>92183.89891818175</v>
+        <v>92183.89891818173</v>
       </c>
       <c r="E4" t="n">
-        <v>12996.86414683048</v>
+        <v>12996.8641468304</v>
       </c>
       <c r="F4" t="n">
-        <v>12996.86414683046</v>
+        <v>12996.86414683042</v>
       </c>
       <c r="G4" t="n">
         <v>12996.86414683046</v>
       </c>
       <c r="H4" t="n">
-        <v>12996.86414683042</v>
+        <v>12996.86414683046</v>
       </c>
       <c r="I4" t="n">
         <v>12996.86414683044</v>
       </c>
       <c r="J4" t="n">
-        <v>12996.86414683052</v>
+        <v>12996.86414683043</v>
       </c>
       <c r="K4" t="n">
-        <v>12996.86414683042</v>
+        <v>12996.86414683043</v>
       </c>
       <c r="L4" t="n">
         <v>12996.86414683044</v>
       </c>
       <c r="M4" t="n">
-        <v>12996.86414683046</v>
+        <v>12996.86414683045</v>
       </c>
       <c r="N4" t="n">
-        <v>12996.86414683046</v>
+        <v>12996.86414683044</v>
       </c>
       <c r="O4" t="n">
         <v>12996.86414683044</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-769398.9480827053</v>
+        <v>-769398.9480827054</v>
       </c>
       <c r="C6" t="n">
-        <v>559345.7976448877</v>
+        <v>559345.7976448876</v>
       </c>
       <c r="D6" t="n">
-        <v>559345.7976448875</v>
+        <v>559345.7976448874</v>
       </c>
       <c r="E6" t="n">
-        <v>307078.7489351629</v>
+        <v>307044.0110097264</v>
       </c>
       <c r="F6" t="n">
-        <v>632491.2107425175</v>
+        <v>632456.4728170822</v>
       </c>
       <c r="G6" t="n">
-        <v>632491.2107425177</v>
+        <v>632456.4728170821</v>
       </c>
       <c r="H6" t="n">
-        <v>632491.2107425178</v>
+        <v>632456.472817082</v>
       </c>
       <c r="I6" t="n">
-        <v>632491.2107425181</v>
+        <v>632456.4728170823</v>
       </c>
       <c r="J6" t="n">
-        <v>414960.0083452406</v>
+        <v>414925.2704198044</v>
       </c>
       <c r="K6" t="n">
-        <v>632491.2107425176</v>
+        <v>632456.4728170824</v>
       </c>
       <c r="L6" t="n">
-        <v>632491.2107425178</v>
+        <v>632456.4728170823</v>
       </c>
       <c r="M6" t="n">
-        <v>547436.1828070058</v>
+        <v>547401.4448815701</v>
       </c>
       <c r="N6" t="n">
-        <v>632491.210742518</v>
+        <v>632456.4728170822</v>
       </c>
       <c r="O6" t="n">
-        <v>632491.210742518</v>
+        <v>632456.4728170822</v>
       </c>
       <c r="P6" t="n">
-        <v>632491.2107425181</v>
+        <v>632456.4728170822</v>
       </c>
     </row>
   </sheetData>
@@ -26787,28 +26787,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.401455402293</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="C4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022928</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022928</v>
       </c>
       <c r="E4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="F4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="G4" t="n">
         <v>1172.708288099648</v>
       </c>
       <c r="H4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="I4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="J4" t="n">
         <v>1172.708288099648</v>
@@ -26966,16 +26966,16 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>278.1987997483752</v>
+        <v>278.1987997483757</v>
       </c>
       <c r="F3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -27009,7 +27009,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.401455402293</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973555</v>
+        <v>341.3068326973558</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022924</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973555</v>
+        <v>341.3068326973558</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27255,7 +27255,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.401455402293</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973555</v>
+        <v>341.3068326973558</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27376,7 +27376,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
@@ -27385,10 +27385,10 @@
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>102.5552677716034</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>302.9691409186509</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -27430,7 +27430,7 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -27445,7 +27445,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27534,22 +27534,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>87.84429904530954</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -27582,10 +27582,10 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
@@ -27594,16 +27594,16 @@
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>120.7449497621446</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -27613,25 +27613,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>254.4799713457124</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -27667,10 +27667,10 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>145.973066703712</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -27771,7 +27771,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
@@ -27783,10 +27783,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H7" t="n">
         <v>144.7550149143208</v>
@@ -27819,7 +27819,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>18.10451147494068</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
@@ -27837,10 +27837,10 @@
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>105.0742887270135</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27850,7 +27850,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -27862,13 +27862,13 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -27901,10 +27901,10 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>161.272370180217</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
@@ -27916,10 +27916,10 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>314.555248579075</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28011,19 +28011,19 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>161.9826211426293</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>144.7550149143208</v>
@@ -28056,13 +28056,13 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
@@ -28071,13 +28071,13 @@
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>271.1000969860418</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -28090,10 +28090,10 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>-9.003997547551989e-13</v>
       </c>
       <c r="D11" t="n">
-        <v>9.003997547551989e-13</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
@@ -28339,7 +28339,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>-8.424525727746915e-14</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -28378,7 +28378,7 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>5.684341886080801e-13</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
@@ -28573,10 +28573,10 @@
         <v>0</v>
       </c>
       <c r="F17" t="n">
+        <v>0</v>
+      </c>
+      <c r="G17" t="n">
         <v>5.115907697472721e-13</v>
-      </c>
-      <c r="G17" t="n">
-        <v>0</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -28813,7 +28813,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -29275,7 +29275,7 @@
         <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>1.800799509510398e-12</v>
+        <v>0</v>
       </c>
       <c r="D26" t="n">
         <v>0</v>
@@ -29563,7 +29563,7 @@
         <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>-3.410605131648481e-13</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
         <v>0</v>
@@ -29998,10 +29998,10 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="H35" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -30238,7 +30238,7 @@
         <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -31750,49 +31750,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H11" t="n">
-        <v>56.3207199713534</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I11" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J11" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817574</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L11" t="n">
-        <v>867.8464071162559</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175673</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159424</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460026</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236506</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669222</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S11" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T11" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U11" t="n">
-        <v>0.4399519197078745</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31829,49 +31829,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H12" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I12" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J12" t="n">
         <v>126.8376266666667</v>
       </c>
       <c r="K12" t="n">
-        <v>326.7634969305202</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473071</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862119</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071783</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437242</v>
+        <v>483.3274636075158</v>
       </c>
       <c r="P12" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q12" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R12" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742437</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T12" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31911,46 +31911,46 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869274</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O13" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P13" t="n">
-        <v>298.3532140417314</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,7 +31987,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H14" t="n">
         <v>56.32071997135341</v>
@@ -31999,31 +31999,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L14" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S14" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T14" t="n">
         <v>24.07361910651528</v>
@@ -32066,49 +32066,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H15" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I15" t="n">
         <v>101.3076196007749</v>
       </c>
       <c r="J15" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K15" t="n">
-        <v>475.1391886422585</v>
+        <v>258.3858318060501</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O15" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P15" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q15" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R15" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32148,25 +32148,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O16" t="n">
         <v>348.6767717920058</v>
@@ -32175,19 +32175,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,7 +32224,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H17" t="n">
         <v>56.32071997135341</v>
@@ -32236,31 +32236,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L17" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S17" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
@@ -32303,49 +32303,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H18" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I18" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
         <v>126.8376266666667</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L18" t="n">
-        <v>164.2853229338207</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862121</v>
+        <v>322.7581251332982</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R18" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32385,25 +32385,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O19" t="n">
         <v>348.6767717920058</v>
@@ -32412,19 +32412,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,7 +32461,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H20" t="n">
         <v>56.32071997135341</v>
@@ -32473,31 +32473,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L20" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S20" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
@@ -32540,49 +32540,49 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H21" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
         <v>99.52238</v>
       </c>
       <c r="J21" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862122</v>
+        <v>173.3851399586646</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P21" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R21" t="n">
-        <v>171.4104471179097</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32622,25 +32622,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O22" t="n">
         <v>348.6767717920058</v>
@@ -32649,19 +32649,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,7 +32698,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H23" t="n">
         <v>56.32071997135341</v>
@@ -32710,31 +32710,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L23" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S23" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
@@ -32777,49 +32777,49 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H24" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
         <v>99.52238</v>
       </c>
       <c r="J24" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
         <v>137.841438974359</v>
       </c>
       <c r="L24" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437244</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q24" t="n">
-        <v>375.5996128485291</v>
+        <v>307.3280120589134</v>
       </c>
       <c r="R24" t="n">
-        <v>171.4104471179097</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32859,25 +32859,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O25" t="n">
         <v>348.6767717920058</v>
@@ -32886,19 +32886,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,37 +32935,37 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H26" t="n">
-        <v>56.3207199713534</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I26" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J26" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817574</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L26" t="n">
-        <v>867.8464071162559</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175673</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159424</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460026</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236506</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669222</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R26" t="n">
         <v>345.4516222043725</v>
@@ -32974,10 +32974,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T26" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U26" t="n">
-        <v>0.4399519197078745</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33020,40 +33020,40 @@
         <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J27" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
-        <v>734.267838362267</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071783</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437242</v>
+        <v>332.1692388321076</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214697</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q27" t="n">
         <v>375.599612848529</v>
       </c>
       <c r="R27" t="n">
-        <v>182.689256441856</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742437</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T27" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
         <v>0.1935814387275954</v>
@@ -33099,28 +33099,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869274</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J28" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N28" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O28" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P28" t="n">
-        <v>298.3532140417314</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
         <v>206.5643005515927</v>
@@ -33129,7 +33129,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
@@ -33260,7 +33260,7 @@
         <v>99.52238</v>
       </c>
       <c r="J30" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
         <v>475.1391886422585</v>
@@ -33269,22 +33269,22 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
-        <v>597.1709559744729</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P30" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
-        <v>139.9817740860215</v>
+        <v>360.9226811202611</v>
       </c>
       <c r="R30" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S30" t="n">
         <v>54.65449286742438</v>
@@ -33415,7 +33415,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I32" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J32" t="n">
         <v>466.7546155663283</v>
@@ -33494,34 +33494,34 @@
         <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J33" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M33" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071785</v>
+        <v>691.6611968462892</v>
       </c>
       <c r="O33" t="n">
-        <v>551.7051287319853</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P33" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R33" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S33" t="n">
         <v>54.65449286742438</v>
@@ -33652,7 +33652,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I35" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J35" t="n">
         <v>466.7546155663283</v>
@@ -33661,7 +33661,7 @@
         <v>699.5441750817575</v>
       </c>
       <c r="L35" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162566</v>
       </c>
       <c r="M35" t="n">
         <v>965.6463440175675</v>
@@ -33731,31 +33731,31 @@
         <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J36" t="n">
         <v>126.8376266666667</v>
       </c>
       <c r="K36" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L36" t="n">
         <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862121</v>
+        <v>269.1634560719508</v>
       </c>
       <c r="N36" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>551.7051287319853</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P36" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q36" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R36" t="n">
         <v>145.679503963964</v>
@@ -33892,7 +33892,7 @@
         <v>212.0155798067232</v>
       </c>
       <c r="J38" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663288</v>
       </c>
       <c r="K38" t="n">
         <v>699.5441750817575</v>
@@ -33971,19 +33971,19 @@
         <v>99.52238</v>
       </c>
       <c r="J39" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
         <v>137.841438974359</v>
       </c>
       <c r="L39" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
-        <v>734.2678383622665</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071785</v>
+        <v>705.9257335045849</v>
       </c>
       <c r="O39" t="n">
         <v>700.0808204437243</v>
@@ -34126,7 +34126,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I41" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J41" t="n">
         <v>466.7546155663283</v>
@@ -34135,7 +34135,7 @@
         <v>699.5441750817575</v>
       </c>
       <c r="L41" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162566</v>
       </c>
       <c r="M41" t="n">
         <v>965.6463440175675</v>
@@ -34208,16 +34208,16 @@
         <v>99.52238</v>
       </c>
       <c r="J42" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
-        <v>734.2678383622665</v>
+        <v>173.3851399586646</v>
       </c>
       <c r="N42" t="n">
         <v>765.2790490071785</v>
@@ -34226,7 +34226,7 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
         <v>375.599612848529</v>
@@ -34363,7 +34363,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I44" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J44" t="n">
         <v>466.7546155663283</v>
@@ -34442,19 +34442,19 @@
         <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
         <v>126.8376266666667</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>227.8611086463993</v>
       </c>
       <c r="L45" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N45" t="n">
         <v>765.2790490071785</v>
@@ -34469,7 +34469,7 @@
         <v>375.599612848529</v>
       </c>
       <c r="R45" t="n">
-        <v>171.4104471179106</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S45" t="n">
         <v>54.65449286742438</v>
@@ -35404,34 +35404,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317227</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J11" t="n">
-        <v>285.7087110396419</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.4543240367769</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L11" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902946</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O11" t="n">
-        <v>696.4886512243158</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924726</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35483,34 +35483,34 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>188.9220579561612</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>500.3288951674329</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M12" t="n">
-        <v>603.4126137641936</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>633.937336923845</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>557.4845759992797</v>
+        <v>340.7312191630714</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35565,28 +35565,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295333</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K13" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M13" t="n">
-        <v>426.272427001045</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N13" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060453</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P13" t="n">
-        <v>295.6317733066249</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q13" t="n">
-        <v>120.4022572998983</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35641,34 +35641,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J14" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L14" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O14" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35720,34 +35720,34 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J15" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>337.2977496678996</v>
+        <v>120.5443928316911</v>
       </c>
       <c r="L15" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M15" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>256.1654199113569</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35802,22 +35802,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K16" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N16" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P16" t="n">
         <v>295.631773306625</v>
@@ -35878,34 +35878,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J17" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L17" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M17" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O17" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35957,34 +35957,34 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>25.73094315394657</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M18" t="n">
-        <v>603.4126137641938</v>
+        <v>180.6240912112798</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O18" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36039,22 +36039,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K19" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N19" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36115,34 +36115,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J20" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L20" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M20" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O20" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36197,31 +36197,31 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
-        <v>603.4126137641938</v>
+        <v>31.25110603664623</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R21" t="n">
-        <v>25.73094315394571</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36276,22 +36276,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K22" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N22" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P22" t="n">
         <v>295.631773306625</v>
@@ -36352,34 +36352,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J23" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L23" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M23" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O23" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36434,31 +36434,31 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>557.48457599928</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q24" t="n">
-        <v>235.6178387625076</v>
+        <v>167.3462379728918</v>
       </c>
       <c r="R24" t="n">
-        <v>25.73094315394571</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36513,22 +36513,22 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K25" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N25" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P25" t="n">
         <v>295.631773306625</v>
@@ -36589,31 +36589,31 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317227</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J26" t="n">
-        <v>285.7087110396419</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.4543240367769</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L26" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M26" t="n">
-        <v>735.3001107902946</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N26" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O26" t="n">
-        <v>696.4886512243158</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P26" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924726</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R26" t="n">
         <v>129.8660843902404</v>
@@ -36668,34 +36668,34 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
-        <v>592.1338044402486</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>633.937336923845</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>557.4845759992797</v>
+        <v>189.5729943876631</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071394</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q27" t="n">
         <v>235.6178387625075</v>
       </c>
       <c r="R27" t="n">
-        <v>37.00975247789208</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36750,7 +36750,7 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295333</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K28" t="n">
         <v>264.3325884096349</v>
@@ -36759,19 +36759,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M28" t="n">
-        <v>426.272427001045</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N28" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060453</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P28" t="n">
-        <v>295.6317733066249</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q28" t="n">
-        <v>120.4022572998983</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36908,7 +36908,7 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
         <v>337.2977496678996</v>
@@ -36917,22 +36917,22 @@
         <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
-        <v>455.0369220524547</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
         <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>220.9409070342396</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37063,7 +37063,7 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
@@ -37142,34 +37142,34 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M33" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238452</v>
+        <v>560.3194847629559</v>
       </c>
       <c r="O33" t="n">
-        <v>409.1088842875408</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P33" t="n">
         <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37300,7 +37300,7 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
@@ -37309,7 +37309,7 @@
         <v>479.454324036777</v>
       </c>
       <c r="L35" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462693</v>
       </c>
       <c r="M35" t="n">
         <v>735.3001107902948</v>
@@ -37379,31 +37379,31 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
         <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
-        <v>603.4126137641938</v>
+        <v>127.0294221499325</v>
       </c>
       <c r="N36" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>409.1088842875408</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37540,7 +37540,7 @@
         <v>1.539690236317256</v>
       </c>
       <c r="J38" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396425</v>
       </c>
       <c r="K38" t="n">
         <v>479.454324036777</v>
@@ -37619,19 +37619,19 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
-        <v>592.1338044402481</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238452</v>
+        <v>574.5840214212516</v>
       </c>
       <c r="O39" t="n">
         <v>557.4845759992799</v>
@@ -37774,7 +37774,7 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
@@ -37783,7 +37783,7 @@
         <v>479.454324036777</v>
       </c>
       <c r="L41" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462693</v>
       </c>
       <c r="M41" t="n">
         <v>735.3001107902948</v>
@@ -37856,16 +37856,16 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
-        <v>592.1338044402481</v>
+        <v>31.25110603664623</v>
       </c>
       <c r="N42" t="n">
         <v>633.9373369238452</v>
@@ -37874,7 +37874,7 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
         <v>235.6178387625075</v>
@@ -38011,7 +38011,7 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
@@ -38090,19 +38090,19 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>90.01966967204031</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
         <v>633.9373369238452</v>
@@ -38117,7 +38117,7 @@
         <v>235.6178387625075</v>
       </c>
       <c r="R45" t="n">
-        <v>25.73094315394662</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
